--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/additive/ranking_test1/results.xlsx
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.002</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.344</v>
+        <v>23.935</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>31.97086234890329</v>
+        <v>28.95291271539281</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>31.97097332666963</v>
+        <v>31.56345335918778</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.97095967762716</v>
+        <v>30.92568752101144</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>31.96871251960082</v>
+        <v>29.52589885742554</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>31.96874488726002</v>
+        <v>29.28696608498191</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>31.96878627050054</v>
+        <v>30.83467618825989</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>31.97090773426453</v>
+        <v>31.24569961049853</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31.97088907503538</v>
+        <v>29.41965071717294</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>31.9709104932933</v>
+        <v>30.63976212558597</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31.96187166829439</v>
+        <v>30.46762260289917</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.96190493114197</v>
+        <v>30.78442081023301</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.96190702626292</v>
+        <v>30.80730775050996</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>31.9611788662639</v>
+        <v>29.9678740476986</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.96129047607124</v>
+        <v>31.27087829013885</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31.96128713075154</v>
+        <v>31.00186319605828</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>31.95809748163201</v>
+        <v>30.20665447506209</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>31.95814935255909</v>
+        <v>31.31832005331257</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.95820018933162</v>
+        <v>31.47238587047645</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>31.95433334346699</v>
+        <v>27.15160855891082</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31.95442205701471</v>
+        <v>29.16994586217723</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.95449130219143</v>
+        <v>30.212286490095</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>31.95819215487377</v>
+        <v>29.97282539755036</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31.95809579070506</v>
+        <v>29.72254802300139</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>31.96825779244296</v>
+        <v>26.76637123581867</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31.96844545507868</v>
+        <v>31.71247959461018</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31.96844423873198</v>
+        <v>31.42275934932675</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>31.9660903328118</v>
+        <v>29.84046912623394</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>31.96614410240259</v>
+        <v>30.09914534395493</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>31.96619759329807</v>
+        <v>30.73409256232892</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>31.96851594596432</v>
+        <v>32.25240300389879</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31.96848516052926</v>
+        <v>29.20391766985421</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>31.96853661788414</v>
+        <v>30.67632569527577</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>31.9584423342464</v>
+        <v>31.77473984771649</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>31.95850174227234</v>
+        <v>32.34571256994818</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>31.95851474679147</v>
+        <v>32.45264890055217</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>31.95750538644968</v>
+        <v>30.53813230160345</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>31.95772029981221</v>
+        <v>32.48075716876852</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>31.95774976565772</v>
+        <v>32.44870015815922</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>31.95350771094122</v>
+        <v>26.61878972499074</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.95422216520187</v>
+        <v>32.64452130926659</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>31.95410250009348</v>
+        <v>33.77408641514089</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>31.95074807524617</v>
+        <v>28.97397037147995</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.95106590055179</v>
+        <v>32.19218571427983</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>31.9510337553957</v>
+        <v>33.17269195373216</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>31.95457561711689</v>
+        <v>33.27189785718196</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>31.95475476767914</v>
+        <v>32.90476773425524</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>31.9691819642721</v>
+        <v>26.21810020730967</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31.96936591028174</v>
+        <v>31.39433337163408</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>31.96936620927936</v>
+        <v>31.00750162952731</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>31.96702994804135</v>
+        <v>29.74246106153523</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.96708886206576</v>
+        <v>30.09976622627566</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>31.96714055252383</v>
+        <v>30.86237099031177</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>31.96937987387429</v>
+        <v>32.2897336278897</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>31.96935681507651</v>
+        <v>29.32241234660533</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>31.9694076272211</v>
+        <v>30.96666937882905</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>31.95960899777198</v>
+        <v>31.3598038374473</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>31.95966690414738</v>
+        <v>31.95790401263687</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>31.95967890629723</v>
+        <v>32.08907350308723</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.95869822851074</v>
+        <v>29.70237136645532</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>31.95890173305518</v>
+        <v>31.75665872810331</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>31.95893085895209</v>
+        <v>31.72383980411565</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>31.95512384696534</v>
+        <v>26.12318956855321</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>31.95574980346443</v>
+        <v>31.46733059400129</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>31.95562530630118</v>
+        <v>33.25833661513016</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31.95231754969858</v>
+        <v>28.11406184755534</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>31.95265664067568</v>
+        <v>31.04318293700403</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>31.95260721527231</v>
+        <v>32.78697058126087</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>31.95604920914375</v>
+        <v>32.64132729658478</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>31.95623113160991</v>
+        <v>31.63175436067759</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>31.9747192736277</v>
+        <v>27.89379180945848</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>31.97483019179267</v>
+        <v>31.10557230668818</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>31.97482435708015</v>
+        <v>31.54771607475143</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>31.97305629252559</v>
+        <v>29.44061539849748</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>31.97312301029411</v>
+        <v>30.70119693136122</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>31.97312883435577</v>
+        <v>31.54066947213153</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>31.97475866035033</v>
+        <v>30.51387991387736</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>31.9747841219777</v>
+        <v>30.32523322179215</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>31.97478351190902</v>
+        <v>30.80681858092559</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>31.96773028378792</v>
+        <v>31.34714630801268</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>31.96776914194444</v>
+        <v>31.86466747698282</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>31.96776820525254</v>
+        <v>32.02285284914397</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>31.9671247249666</v>
+        <v>30.21139595373626</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>31.96724743843983</v>
+        <v>31.79388868448018</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>31.96724811598327</v>
+        <v>31.95622531637725</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>31.96443914474069</v>
+        <v>28.26539577240152</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>31.96461923264954</v>
+        <v>31.20095406503728</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>31.96463688896038</v>
+        <v>33.43895886732147</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>31.96190116637275</v>
+        <v>28.27684627676802</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>31.96206874603531</v>
+        <v>31.83013828315587</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>31.9620227754652</v>
+        <v>32.89328838508745</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>31.96471534693102</v>
+        <v>31.30590237210217</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31.96474418224662</v>
+        <v>31.33504063164721</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>31.95819757420973</v>
+        <v>29.6937615039557</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>31.94286577936246</v>
+        <v>29.92667660215141</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>31.94290243952805</v>
+        <v>30.37593391254642</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>31.94293075480726</v>
+        <v>30.42394707410888</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>31.94169971308994</v>
+        <v>29.47314405094452</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>31.94180460750189</v>
+        <v>30.23236290864402</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31.94178183594774</v>
+        <v>29.94541963049994</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>31.95353793441325</v>
+        <v>29.64596074129359</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.95368564870455</v>
+        <v>31.167493350026</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>31.95375800026754</v>
+        <v>31.76229738143667</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>31.94937398554613</v>
+        <v>26.10120818237007</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>31.94962771551801</v>
+        <v>28.95038620589736</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>31.94967329718807</v>
+        <v>30.30356546839631</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>31.95374213321973</v>
+        <v>30.11037232578059</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.95374297967476</v>
+        <v>29.77997341156932</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>31.95377022675591</v>
+        <v>29.15567315871856</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>31.93639932713607</v>
+        <v>30.2569210412886</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.93650615309259</v>
+        <v>30.76624568323354</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>31.93651686340036</v>
+        <v>30.87424315255574</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>31.93502480767712</v>
+        <v>29.74699902454299</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>31.93523402091722</v>
+        <v>30.46187221849734</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>31.9352123246451</v>
+        <v>30.47060578394665</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>31.95477958757802</v>
+        <v>32.66805420636933</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>31.93864811529813</v>
+        <v>33.97355549869076</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>31.93880241512419</v>
+        <v>34.89579449238435</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>31.93880171605328</v>
+        <v>35.11342694295789</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>31.93724298914024</v>
+        <v>32.23413576342489</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>31.93766551859629</v>
+        <v>34.49650405290836</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>31.93756106471173</v>
+        <v>35.05496944258587</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>31.94897256276991</v>
+        <v>27.32704727906599</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>31.94974180566987</v>
+        <v>34.93760431096587</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>31.94959289755563</v>
+        <v>35.0055614505613</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>31.94556174157634</v>
+        <v>29.98018298509004</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>31.94598052133503</v>
+        <v>33.18687672419109</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>31.94592201264357</v>
+        <v>34.4738788914178</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>31.95003686713555</v>
+        <v>35.29229144287866</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>31.95022942976316</v>
+        <v>34.63473655555946</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>31.95011606263642</v>
+        <v>35.69170837792182</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>31.93232886336525</v>
+        <v>36.57566456665306</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>31.93250892163842</v>
+        <v>37.61897489815133</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>31.93248818355079</v>
+        <v>37.87894853678896</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>31.93068746725883</v>
+        <v>34.42949138172418</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>31.93118142857997</v>
+        <v>37.42847378157687</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>31.93102809411233</v>
+        <v>37.75152566831366</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>31.95622488135757</v>
+        <v>31.88728723013497</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>31.94069053944312</v>
+        <v>32.79981882896314</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>31.94085882022484</v>
+        <v>33.59809115921575</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>31.94082217141855</v>
+        <v>34.08928028926245</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>31.93934556027023</v>
+        <v>31.4112390757898</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>31.93981361817596</v>
+        <v>33.12123866436964</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>31.93964335783042</v>
+        <v>34.10558512119319</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>31.9506780850863</v>
+        <v>27.48483452783175</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>31.95136912309684</v>
+        <v>34.6017227319483</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>31.9512397851543</v>
+        <v>35.27779763870385</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>31.94719831395778</v>
+        <v>29.29221113839068</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>31.94763657342252</v>
+        <v>32.37862784981137</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>31.94760904128663</v>
+        <v>34.24295859698743</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>31.95159284455957</v>
+        <v>34.69035426864244</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>31.95179592854045</v>
+        <v>33.88914084115239</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>31.95171249681531</v>
+        <v>35.13181136495574</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>31.93434399104634</v>
+        <v>35.5805885404319</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>31.93453920533545</v>
+        <v>36.50532382148987</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>31.93451957773086</v>
+        <v>36.99517890790144</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>31.93273046960856</v>
+        <v>33.51254690453966</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>31.93326646630852</v>
+        <v>36.15833685381362</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>31.93310473732597</v>
+        <v>36.79784109778331</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.96476318958776</v>
+        <v>31.89607193287458</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>31.9529611182022</v>
+        <v>31.76491137393596</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>31.95303075009507</v>
+        <v>32.32507412301414</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>31.95301857530619</v>
+        <v>32.94901426809979</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>31.95203359013731</v>
+        <v>31.25918951596156</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>31.9522298920587</v>
+        <v>32.29686453806409</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>31.95217115626298</v>
+        <v>33.46244363297495</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>31.96087418496594</v>
+        <v>27.98716796275933</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>31.96117116301082</v>
+        <v>32.63296497173936</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>31.96113740910807</v>
+        <v>34.03919948895522</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>31.95785107794737</v>
+        <v>28.45986720641894</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>31.95804711351946</v>
+        <v>31.75708867632935</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>31.95803125696856</v>
+        <v>33.63478430298778</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>31.96114154150743</v>
+        <v>32.20369110548423</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>31.96121162718853</v>
+        <v>32.87690176132393</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>31.96118030656615</v>
+        <v>33.70212609498328</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>31.94773553903391</v>
+        <v>33.36823234763384</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>31.94782831938717</v>
+        <v>34.26075178016747</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>31.94782592556123</v>
+        <v>34.82772126069915</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>31.94661585801479</v>
+        <v>31.89654998146493</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>31.94686785278959</v>
+        <v>33.98784402177949</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>31.9468014526563</v>
+        <v>34.62090855518995</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>31.96491746184138</v>
+        <v>11.76696627386574</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>31.96509219216707</v>
+        <v>29.17559603367127</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>31.96502658901365</v>
+        <v>25.22919151303713</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>31.96208534828187</v>
+        <v>19.77250898782397</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>31.96210179300293</v>
+        <v>18.68803017673331</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>31.96218123108147</v>
+        <v>27.96636154667932</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>31.96501892018964</v>
+        <v>29.51578137834555</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>31.96491472719437</v>
+        <v>18.68598488900987</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>31.9649516681037</v>
+        <v>26.70051836485484</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>31.95318821129009</v>
+        <v>23.048417442149</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>31.95323353058832</v>
+        <v>25.20086980586813</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>31.95322731211745</v>
+        <v>25.39091081516158</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>31.9523465929061</v>
+        <v>19.6622845156172</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>31.95250598985317</v>
+        <v>28.2805411348921</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>31.95246295683887</v>
+        <v>26.9902754333172</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>31.94848535195831</v>
+        <v>20.54388707666643</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>31.94859540315631</v>
+        <v>30.52560015082527</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>31.94866193795194</v>
+        <v>32.3902733429814</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>31.94333192885652</v>
+        <v>7.010274119019698</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>31.94347925983852</v>
+        <v>23.29327731028075</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>31.94359982917056</v>
+        <v>29.60687926941216</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>31.94862173614358</v>
+        <v>23.91086918769945</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>31.94844232541251</v>
+        <v>25.05400683785204</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>31.96122415029028</v>
+        <v>7.799173381718731</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>31.96160824591611</v>
+        <v>41.08644714481466</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>31.96163457116566</v>
+        <v>39.00494829671065</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>31.95837302491484</v>
+        <v>23.30125739110149</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>31.95839092419553</v>
+        <v>28.29061134353363</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>31.95845268822078</v>
+        <v>31.25875412821146</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>31.96168206134509</v>
+        <v>40.20448500100541</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>31.96155874987138</v>
+        <v>25.58965084403052</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>31.9616516472417</v>
+        <v>33.63501349404368</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>31.94826333709991</v>
+        <v>38.9979496022027</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>31.94837265746831</v>
+        <v>43.46458709813152</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>31.94838416677525</v>
+        <v>43.99442473553245</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>31.94709224255039</v>
+        <v>30.21919264269034</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>31.94745065530864</v>
+        <v>44.58124819675992</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>31.94750216934226</v>
+        <v>43.88822221567042</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>31.94354347779056</v>
+        <v>2.294479017236878</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>31.94496091641705</v>
+        <v>38.74344459607652</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>31.94474192382544</v>
+        <v>43.65362379219016</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>31.94165235151513</v>
+        <v>13.72041213762109</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>31.9422284675622</v>
+        <v>31.1766907656286</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>31.94204194042225</v>
+        <v>34.50328333300982</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>31.94699358694088</v>
+        <v>39.67741520941053</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>31.94423746150437</v>
+        <v>36.29305016015967</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>31.9624582876662</v>
+        <v>3.156804773632004</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>31.96278791116183</v>
+        <v>37.35239472474783</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>31.96332676554358</v>
+        <v>35.05793852245486</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>31.95979952171525</v>
+        <v>23.75447655296293</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>31.95962426577757</v>
+        <v>28.71853211165958</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>31.95968586571519</v>
+        <v>33.24434326049695</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>31.9629347604069</v>
+        <v>40.89546010803268</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>31.96265441053295</v>
+        <v>25.89142948611137</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>31.96314646028496</v>
+        <v>35.87137458163595</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>31.94979962629371</v>
+        <v>37.95832208966715</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>31.94988045103246</v>
+        <v>42.36628676035047</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>31.94993523495844</v>
+        <v>43.24680741948476</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>31.94871738262945</v>
+        <v>26.64817601999221</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>31.94897285174894</v>
+        <v>41.10048392509178</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>31.95622277808568</v>
+        <v>40.89198336540801</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>31.94545589698491</v>
+        <v>2.475642102923651</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>31.94665683864969</v>
+        <v>36.78743764433779</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>31.94898469533419</v>
+        <v>43.60038777230742</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>31.94336648034532</v>
+        <v>12.00584359189141</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>31.94375101184477</v>
+        <v>30.00773979412601</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>31.94366636123926</v>
+        <v>35.45165166983355</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>31.94777215241421</v>
+        <v>40.84980383626586</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>31.94364980780839</v>
+        <v>35.15332137630136</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>31.97017480778388</v>
+        <v>6.463603586343261</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>31.97034104387374</v>
+        <v>28.07091845313647</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>31.97071184780633</v>
+        <v>31.01932707258529</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>31.968133855045</v>
+        <v>17.41968144001444</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>31.96809025220696</v>
+        <v>26.62340871111457</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>31.96813271034828</v>
+        <v>33.26721953436953</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>31.97039260626927</v>
+        <v>25.70479015518957</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>31.97029650958957</v>
+        <v>26.28007306908357</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>31.97053212609104</v>
+        <v>30.8517052394722</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>31.96105818034327</v>
+        <v>29.67543333521899</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>31.96111494047756</v>
+        <v>33.3322464902142</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>31.96115346466218</v>
+        <v>34.57836229291031</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>31.96030758541207</v>
+        <v>21.10492329591454</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>31.96044805367135</v>
+        <v>32.0271182077039</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>31.96229961094479</v>
+        <v>33.93736800953144</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>31.95688068645698</v>
+        <v>10.14004151785437</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>31.95722080600647</v>
+        <v>31.08869391784825</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.95820331247932</v>
+        <v>41.25824316234861</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>31.95393675370224</v>
+        <v>9.83138051966856</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>31.95412033635336</v>
+        <v>34.54872441192083</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>31.95409237027125</v>
+        <v>36.45626056449047</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>31.95759786028123</v>
+        <v>28.97233811619542</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>31.95618363783559</v>
+        <v>32.19880564847407</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>31.94938185586508</v>
+        <v>25.49493097465096</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>31.92877619961143</v>
+        <v>28.08181157499171</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>31.92879933253245</v>
+        <v>31.95975869667411</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>31.92884513734666</v>
+        <v>32.49437050094766</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>31.92731215630554</v>
+        <v>24.14001070149212</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>31.92741150392532</v>
+        <v>30.95175273661074</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>31.92695513466501</v>
+        <v>29.782787059443</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>31.9423556401892</v>
+        <v>21.77383325509556</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>31.94256491961227</v>
+        <v>31.63223833554399</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>31.94347677366783</v>
+        <v>37.13639482903595</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>31.93690323795305</v>
+        <v>3.574570052105724</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>31.93713691580534</v>
+        <v>22.50315958776658</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>31.93729769130846</v>
+        <v>31.90030016368465</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>31.94281888369491</v>
+        <v>28.97508521484254</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>31.94267053026351</v>
+        <v>27.49258662032271</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>31.94332482884614</v>
+        <v>25.28557439654727</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>31.91971995282073</v>
+        <v>30.49204760503584</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>31.91983552359041</v>
+        <v>34.08024909884374</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>31.91982860556803</v>
+        <v>35.20641419744144</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>31.918036615967</v>
+        <v>26.28805744720944</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>31.9182646098396</v>
+        <v>30.92409477203773</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>31.92509785836047</v>
+        <v>32.12895557826728</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>31.94774936471103</v>
+        <v>32.08111515859346</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>31.92807162561835</v>
+        <v>41.3359053349637</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>31.92822179607714</v>
+        <v>46.59864211055815</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>31.92826677095968</v>
+        <v>47.45409184169525</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>31.92631589010668</v>
+        <v>31.73364936557889</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>31.92676883820452</v>
+        <v>44.73944824423076</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>31.92661859896511</v>
+        <v>46.78014170438081</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>31.93865985404978</v>
+        <v>-0.2872281431170691</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>31.94017807594272</v>
+        <v>45.07211986944446</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>31.9428145357478</v>
+        <v>43.38300864781439</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>31.9365335066557</v>
+        <v>14.44666711851194</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>31.93691316258455</v>
+        <v>33.31915408760469</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>31.93680341347272</v>
+        <v>38.23476640292687</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>31.9416191318164</v>
+        <v>46.22501270882262</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>31.94174536164827</v>
+        <v>41.21352790570063</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>31.94190471837193</v>
+        <v>44.83290156795587</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>31.92022746287428</v>
+        <v>50.25808890589785</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>31.92042310520846</v>
+        <v>56.14972362283279</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>31.92049672188605</v>
+        <v>56.92486702230809</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>31.91814659481569</v>
+        <v>38.52877218820038</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>31.91875884200497</v>
+        <v>56.15860481790617</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>31.91166019350926</v>
+        <v>56.21916967418901</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>31.94862665278745</v>
+        <v>31.83719629571915</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>31.92898833840474</v>
+        <v>38.42500620048507</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>31.929180495852</v>
+        <v>43.53024828930015</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>31.92915015399735</v>
+        <v>45.11418950895782</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>31.92731982953527</v>
+        <v>29.95168157708981</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>31.9278555227002</v>
+        <v>41.05230677502978</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>31.92834017088487</v>
+        <v>44.08256883252607</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>31.93983643937302</v>
+        <v>0.9282630491601687</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>31.9411795299096</v>
+        <v>44.44242142678151</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>31.94349193614829</v>
+        <v>44.81257134325152</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>31.9368380347293</v>
+        <v>14.6485850901461</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>31.93733878202787</v>
+        <v>33.53484484182433</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>31.93737156506074</v>
+        <v>40.52834082319131</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>31.94220614592244</v>
+        <v>47.05265928237298</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>31.94239107919761</v>
+        <v>41.53875580289494</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>31.94275206982949</v>
+        <v>45.2403320406729</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>31.9206155257341</v>
+        <v>50.80167242412111</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>31.92083121039046</v>
+        <v>56.12651993980163</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>31.92091621944875</v>
+        <v>57.80578156163162</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>31.91855774241306</v>
+        <v>38.89642771171388</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>31.91917757585621</v>
+        <v>54.87969696547894</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>31.91016359245912</v>
+        <v>56.09690893040041</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>31.95804331741699</v>
+        <v>31.81583757757299</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>31.94224865392679</v>
+        <v>31.56099756855217</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>31.94235857035548</v>
+        <v>35.85134808091016</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>31.94240906046158</v>
+        <v>38.45625502232252</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>31.94108321641878</v>
+        <v>28.12765072565504</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>31.94126186367868</v>
+        <v>36.50903941596313</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>31.94143196594642</v>
+        <v>41.19146078114003</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>31.95219182920586</v>
+        <v>9.832785787854398</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.95279293025149</v>
+        <v>40.95872916202916</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>31.95372977935387</v>
+        <v>45.90911426753873</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>31.94882753734795</v>
+        <v>14.5274701401969</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>31.94900595695382</v>
+        <v>36.61799846417986</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>31.94914748711387</v>
+        <v>43.98318042557284</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>31.95304394562827</v>
+        <v>38.92944398148994</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>31.95306480029517</v>
+        <v>44.407329663896</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>31.95338068066045</v>
+        <v>46.5824192190663</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>31.93571161188527</v>
+        <v>50.13593191677265</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>31.93583170196856</v>
+        <v>56.11470230396074</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>31.93586323676028</v>
+        <v>58.34384023179749</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>31.93434320680477</v>
+        <v>40.88254177542768</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>31.9345769335982</v>
+        <v>54.96051276541732</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>31.93098129873354</v>
+        <v>56.73345781633405</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>31.96454636308461</v>
+        <v>14.07952838915992</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>31.9646413649145</v>
+        <v>28.24401853319379</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>31.96463090279149</v>
+        <v>24.53389060704225</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>31.96145280424406</v>
+        <v>18.88351414905308</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>31.96138382217855</v>
+        <v>18.07351735898332</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>31.96148247274058</v>
+        <v>25.04798605250613</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>31.96447940905232</v>
+        <v>27.19490348333389</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>31.96432728024276</v>
+        <v>18.11453321697224</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>31.96447866264623</v>
+        <v>24.23494478693994</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>31.95212793885274</v>
+        <v>22.70847696638905</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>31.95215348791909</v>
+        <v>24.49909958836265</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>31.95214763536765</v>
+        <v>24.57712719083295</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>31.95132373267602</v>
+        <v>20.16836020342996</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>31.95139409475843</v>
+        <v>27.06627044877063</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>31.95228439299551</v>
+        <v>25.72378192575913</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>31.94778117877538</v>
+        <v>20.97956076098454</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>31.94783905529621</v>
+        <v>27.83899466385819</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>31.94814912150526</v>
+        <v>28.86257767041088</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>31.94245737627639</v>
+        <v>6.83159753921327</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>31.94250498175494</v>
+        <v>18.98440120240062</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>31.94258068491045</v>
+        <v>24.00871667537218</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>31.94772213096646</v>
+        <v>20.81421638563845</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>31.94960886213714</v>
+        <v>20.71674273563401</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>31.96069696067874</v>
+        <v>8.19281569149679</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>31.96095707247422</v>
+        <v>34.12997770658454</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>31.9611322935593</v>
+        <v>31.6872704715269</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>31.95745950648251</v>
+        <v>20.07627353921568</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>31.95730760516912</v>
+        <v>22.55133761226054</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>31.95733028803013</v>
+        <v>24.41783068515671</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>31.9608944628661</v>
+        <v>33.08455726291785</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>31.96069645399301</v>
+        <v>18.95202381955796</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>31.96081203677316</v>
+        <v>25.3108894510284</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>31.94660867444292</v>
+        <v>30.44264250057688</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>31.94664546771358</v>
+        <v>33.69410049058086</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>31.94665589052324</v>
+        <v>34.00725033604153</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>31.94558837536621</v>
+        <v>23.94384040252726</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>31.94575506122368</v>
+        <v>34.64741584651274</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>31.95165870071085</v>
+        <v>33.69171325711422</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>31.94273983945515</v>
+        <v>7.602978508921133</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>31.94362953983607</v>
+        <v>38.69870391285567</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>31.9451410282978</v>
+        <v>42.90921726021926</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>31.93951256133938</v>
+        <v>17.73224788653793</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>31.93963138673608</v>
+        <v>33.75874043105541</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>31.9395109663976</v>
+        <v>37.14099346589733</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>31.942721495023</v>
+        <v>39.57819840813906</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>31.94269862252753</v>
+        <v>37.53576154127265</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>31.96185928746343</v>
+        <v>4.961829609309309</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>31.96222892729707</v>
+        <v>31.9737411669225</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>31.96224519055732</v>
+        <v>29.37674644826237</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>31.95874161363915</v>
+        <v>19.98124051355097</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>31.95857590415455</v>
+        <v>22.71814583344205</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>31.95859665819063</v>
+        <v>26.04179798080323</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>31.96200684687619</v>
+        <v>33.32522242190748</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>31.96205820616307</v>
+        <v>19.27790882770645</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>31.96202568302</v>
+        <v>27.33750966763198</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>31.94829985606708</v>
+        <v>28.70922102606448</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>31.94834631973576</v>
+        <v>31.99949589542173</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>31.9483342064181</v>
+        <v>32.64234643039412</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>31.94733248725739</v>
+        <v>20.18045753690332</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>31.95261603199611</v>
+        <v>31.18203475016589</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>31.95252730767884</v>
+        <v>30.65821163148108</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>31.94404123328972</v>
+        <v>6.319532947987955</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>31.94600641726211</v>
+        <v>34.74583868229599</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>31.94618945959774</v>
+        <v>41.69590737931952</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>31.94053828355377</v>
+        <v>14.76763983180492</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>31.94075679696063</v>
+        <v>30.17146337809884</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>31.9406529064996</v>
+        <v>36.67701476552824</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>31.9434333045481</v>
+        <v>38.33411670045211</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>31.94347497604625</v>
+        <v>33.70811929968411</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>31.96980217591097</v>
+        <v>10.43049277507816</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>31.97004865994737</v>
+        <v>26.78598301249319</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>31.97006492450065</v>
+        <v>28.97735485064314</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>31.96753803246722</v>
+        <v>17.58698403376944</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>31.96745843532972</v>
+        <v>23.96147970264993</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>31.96750597442947</v>
+        <v>28.62437823028153</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>31.96986606302583</v>
+        <v>24.13377775118275</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>31.96986944914323</v>
+        <v>23.26985742865171</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>31.96985870149528</v>
+        <v>26.26681843649509</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>31.96019133218104</v>
+        <v>26.31846175288579</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>31.96023601997691</v>
+        <v>28.92632424673672</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>31.96022815239617</v>
+        <v>29.81633725091083</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>31.95949828018532</v>
+        <v>20.02891896682165</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>31.96088204306843</v>
+        <v>28.00174468639752</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>31.96091588233484</v>
+        <v>29.22782894942189</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>31.95617228219199</v>
+        <v>12.80518550425611</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>31.95677310737508</v>
+        <v>28.91341148450538</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>31.95686107909216</v>
+        <v>38.64342508746946</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>31.95262768180377</v>
+        <v>11.46892831543841</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>31.95272000804195</v>
+        <v>31.02618184789198</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>31.95273469013929</v>
+        <v>34.32425246429626</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>31.95594082456481</v>
+        <v>27.0794470429496</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>31.95588744333108</v>
+        <v>28.84478385591398</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>31.94791388214635</v>
+        <v>20.67745420702283</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>31.92680166653823</v>
+        <v>23.30144382560847</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>31.92683709355394</v>
+        <v>26.10338712420993</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>31.92678580147127</v>
+        <v>26.50533121088266</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>31.92538507059338</v>
+        <v>20.75603229770313</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>31.92510389588024</v>
+        <v>25.56552297329477</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>31.92502413427884</v>
+        <v>24.20787574726186</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>31.94156683424238</v>
+        <v>21.11908518778119</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.94208487070121</v>
+        <v>28.82081260138722</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>31.94211003837493</v>
+        <v>33.00400409206753</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>31.93558965594073</v>
+        <v>4.666037068961611</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>31.93567746369331</v>
+        <v>19.87228887469923</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>31.93582197835508</v>
+        <v>27.19982287806967</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>31.94161215875729</v>
+        <v>25.74407968342854</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.94191863967895</v>
+        <v>23.89115238610623</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>31.94195451627613</v>
+        <v>21.87043792303804</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>31.91765059019439</v>
+        <v>26.3915964107621</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>31.91772399741914</v>
+        <v>29.12322799424462</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>31.9176563523013</v>
+        <v>29.98203784950965</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>31.91604618887014</v>
+        <v>23.42503591160541</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>31.92157280121542</v>
+        <v>26.95117241629813</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>31.92194453581654</v>
+        <v>27.69965533931093</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>31.94459344331489</v>
+        <v>34.86323277257626</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>31.92320379865726</v>
+        <v>41.94652373352216</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>31.92331835622455</v>
+        <v>46.78575243229608</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>31.92320422766659</v>
+        <v>47.5466483652247</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>31.92156463523542</v>
+        <v>33.58738711457953</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>31.92162629095844</v>
+        <v>44.90393303169921</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>31.92155772560233</v>
+        <v>46.90289952232202</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>31.9366932243368</v>
+        <v>8.057523093484566</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>31.93917349868443</v>
+        <v>46.0064953828322</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>31.9391402910795</v>
+        <v>44.96511909018173</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>31.9327920914206</v>
+        <v>21.32568831527484</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.93293075218934</v>
+        <v>37.4214972079733</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>31.93284219504394</v>
+        <v>42.6503763486426</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>31.93846145495687</v>
+        <v>47.04799073351008</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>31.93831740760687</v>
+        <v>43.21305291068407</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>31.93833505393821</v>
+        <v>47.15094640876889</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>31.91436707548147</v>
+        <v>52.641580616341</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>31.91453266990606</v>
+        <v>57.83852822109027</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>31.91447654792437</v>
+        <v>58.62946516167949</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>31.91235948606728</v>
+        <v>42.78374030392892</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>31.90928941799244</v>
+        <v>57.51576036820865</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>31.90971811864647</v>
+        <v>57.94092260961419</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>31.94583439242437</v>
+        <v>32.95209513311801</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>31.92470715505663</v>
+        <v>38.14168348505007</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>31.92480393958647</v>
+        <v>42.59666300670213</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>31.92469806724183</v>
+        <v>44.41783497873536</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>31.92282859461389</v>
+        <v>31.18082201581987</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>31.92345597768231</v>
+        <v>40.26105950143185</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>31.92337783596065</v>
+        <v>43.9382922539015</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>31.93987120415095</v>
+        <v>9.017956402788748</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>31.94003375143971</v>
+        <v>45.15291956309599</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>31.94005847227462</v>
+        <v>46.25234354307136</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>31.93291657958184</v>
+        <v>20.00832742449584</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.93343652342369</v>
+        <v>35.76858061738057</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>31.93342751273092</v>
+        <v>43.18187650162456</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>31.94015362194478</v>
+        <v>46.29324630699989</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>31.93963806033546</v>
+        <v>41.91280227996609</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>31.93967227007789</v>
+        <v>46.31123007976674</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>31.91557993427163</v>
+        <v>51.39657477148369</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>31.91567710995669</v>
+        <v>56.07875319428259</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>31.91566220161429</v>
+        <v>57.82853534127293</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>31.90989789856935</v>
+        <v>41.59476512310546</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>31.91009382223645</v>
+        <v>54.88107122053796</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>31.9099394852606</v>
+        <v>56.52105305362721</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>31.95671004922614</v>
+        <v>29.85454505623499</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>31.9404097521695</v>
+        <v>29.0686749919508</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.94047626726324</v>
+        <v>32.34673813714162</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>31.94047739325458</v>
+        <v>34.95209262412276</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>31.93946857437596</v>
+        <v>26.45700428249748</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>31.93973876753009</v>
+        <v>32.66163446703225</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>31.93978120550253</v>
+        <v>37.46602023090797</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>31.95230894485074</v>
+        <v>12.49122176606923</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.95243121467978</v>
+        <v>37.61114027444832</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>31.95241156622279</v>
+        <v>42.73399026068685</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>31.94735467829094</v>
+        <v>16.58339483565136</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>31.94757393344518</v>
+        <v>34.09236733142754</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>31.94770759445004</v>
+        <v>42.01624238174585</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>31.95248501289891</v>
+        <v>36.14994270169277</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>31.95226737504888</v>
+        <v>39.89297678838908</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>31.95223026840292</v>
+        <v>43.3335890507183</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>31.93402102845689</v>
+        <v>44.64657865468658</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>31.93409043504519</v>
+        <v>49.39661276052229</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>31.93408805926922</v>
+        <v>51.68037039146228</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>31.93055506694811</v>
+        <v>37.22129949923529</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>31.93050430732657</v>
+        <v>48.39087033171953</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>31.93053568653785</v>
+        <v>50.67510140986214</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>31.96611073086988</v>
+        <v>14.49956375598066</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>31.96612312950025</v>
+        <v>30.17311479479351</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>31.96605065246246</v>
+        <v>26.50118374761123</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>31.96300024737755</v>
+        <v>21.96432298948277</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>31.96300115243394</v>
+        <v>20.96374497370391</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>31.96307956047243</v>
+        <v>29.33686720266156</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>31.96599313042238</v>
+        <v>30.82391152986382</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>31.96582891720369</v>
+        <v>21.03727770494097</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>31.96589536335489</v>
+        <v>28.16764856450264</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>31.95417309224795</v>
+        <v>25.01719171928871</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>31.95421290474614</v>
+        <v>26.93858527914912</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>31.95421203279179</v>
+        <v>27.0809083061494</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>31.9548887380796</v>
+        <v>21.95854458118277</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>31.95514657391201</v>
+        <v>29.75539676386123</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>31.95509083379177</v>
+        <v>28.47285809911118</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>31.9508121240935</v>
+        <v>20.93897519240039</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>31.95067089716105</v>
+        <v>29.56593461617252</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>31.95077300736398</v>
+        <v>31.27833664838519</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>31.94518199574339</v>
+        <v>8.686130176349867</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>31.94534283764864</v>
+        <v>23.00188474711674</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>31.94919073745967</v>
+        <v>28.76652439480887</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>31.95337051824566</v>
+        <v>23.75688619150862</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>31.95332460316103</v>
+        <v>24.37879820141958</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>31.9630389522462</v>
+        <v>10.55999197497533</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>31.9630368784553</v>
+        <v>40.73447247703473</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>31.96306084153663</v>
+        <v>38.8582102911096</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>31.95942020758864</v>
+        <v>25.47390428670686</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>31.95942549172532</v>
+        <v>29.99121351908944</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>31.95948406700188</v>
+        <v>32.65118118268002</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>31.96321689086874</v>
+        <v>40.42885663850324</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>31.96283814126012</v>
+        <v>27.13507892386209</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>31.96285946551941</v>
+        <v>34.47259365225734</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>31.94949038476138</v>
+        <v>40.01343524336784</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>31.9495527016851</v>
+        <v>44.0501690854578</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>31.94955585838924</v>
+        <v>44.53792927627398</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>31.95553998243433</v>
+        <v>32.17990313308204</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>31.95634521354216</v>
+        <v>45.18760341207042</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.95610462360995</v>
+        <v>44.59239567194535</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>31.94804610470408</v>
+        <v>2.381746181253561</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>31.94847679280609</v>
+        <v>34.45038152042623</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.94863319831071</v>
+        <v>39.05627656760797</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>31.94309564864432</v>
+        <v>10.83407389115007</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.94354510224837</v>
+        <v>25.63602119545331</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.94067196619823</v>
+        <v>28.83631418324373</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>31.9456893653404</v>
+        <v>34.2775184892266</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>31.94571290296435</v>
+        <v>30.31900264516285</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>31.96404175823995</v>
+        <v>6.642891858163594</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>31.96399878872894</v>
+        <v>37.60933974877933</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>31.96403961426994</v>
+        <v>35.51453775542038</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>31.9605870472081</v>
+        <v>25.97412448579873</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>31.96057793686185</v>
+        <v>30.53653678226132</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>31.960637586665</v>
+        <v>34.4768572149234</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>31.96421334121118</v>
+        <v>41.18275651180605</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>31.96388079526705</v>
+        <v>27.57545511100406</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>31.96388789219477</v>
+        <v>36.56368471127951</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>31.95097628826325</v>
+        <v>39.4259250484025</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>31.95104139960769</v>
+        <v>43.40956831273422</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>31.95103577287041</v>
+        <v>44.20305384655099</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>31.95640787173858</v>
+        <v>29.3483691077949</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>31.95719261077198</v>
+        <v>42.44350108134857</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>31.95695395326754</v>
+        <v>42.24790045043785</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>31.94928757747574</v>
+        <v>2.547210864705395</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.94952770984651</v>
+        <v>32.82485633827134</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>31.94969032275816</v>
+        <v>39.03884655629273</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>31.94422802036912</v>
+        <v>9.117438355520317</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>31.94479460141855</v>
+        <v>24.58130545422533</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>31.940517901544</v>
+        <v>29.52316804803612</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.94566790069361</v>
+        <v>35.36529341745951</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>31.94576958551418</v>
+        <v>29.41541345557014</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>31.9713194938045</v>
+        <v>8.877045077719799</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>31.97127887122026</v>
+        <v>28.18782552432663</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>31.97129965718657</v>
+        <v>30.87313203545397</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>31.9688230930787</v>
+        <v>18.35125606759471</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>31.96883343824414</v>
+        <v>26.44596391079095</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>31.96888088032216</v>
+        <v>32.35514607968517</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.97131073563481</v>
+        <v>25.75274928451526</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>31.97114280688543</v>
+        <v>26.00659666017483</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>31.97114798849763</v>
+        <v>29.97766650360062</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>31.96209262962036</v>
+        <v>29.19116069624357</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>31.96213520477483</v>
+        <v>32.40600661998226</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>31.96212842359946</v>
+        <v>33.5316468905915</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>31.963052969311</v>
+        <v>21.7167835807744</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>31.96340034749923</v>
+        <v>31.41877488674908</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>31.96338212076846</v>
+        <v>33.10137988962641</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>31.959091843676</v>
+        <v>10.93910343837365</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>31.95907408573422</v>
+        <v>29.64950979403726</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>31.95920478706019</v>
+        <v>38.71401145955586</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>31.95501354623179</v>
+        <v>9.573870409587141</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>31.95525708861766</v>
+        <v>31.54130147173163</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>31.95401412214954</v>
+        <v>33.19813069464458</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>31.95780280341756</v>
+        <v>27.00612380937222</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>31.95787342853098</v>
+        <v>29.44860204800771</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>31.95082865892546</v>
+        <v>24.96326331506</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>31.93109729420352</v>
+        <v>26.82836856276848</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>31.93113794215292</v>
+        <v>30.21774102164157</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>31.93110750484879</v>
+        <v>30.70899829453399</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>31.9292786086586</v>
+        <v>23.37440825468383</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>31.92962477514192</v>
+        <v>29.22344653956376</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.92957361736259</v>
+        <v>28.23089907870475</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.94523888836905</v>
+        <v>22.58118658069964</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>31.94515669704472</v>
+        <v>31.47350422654257</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>31.94523160020951</v>
+        <v>36.23849929109733</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>31.93881383056258</v>
+        <v>5.926508700512844</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>31.93916464645632</v>
+        <v>22.86160176454316</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>31.93932579370292</v>
+        <v>31.26973237194043</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>31.94542989644522</v>
+        <v>28.76540769419864</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.94515290300979</v>
+        <v>27.40677466781158</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>31.94519228759396</v>
+        <v>25.16064151815844</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>31.92282929664794</v>
+        <v>29.65229293069717</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>31.92293658090212</v>
+        <v>32.86830170645762</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>31.92289233027427</v>
+        <v>33.82268495446993</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>31.92862744163375</v>
+        <v>25.97262188061964</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>31.93026916184494</v>
+        <v>30.13516211375817</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>31.9300259760984</v>
+        <v>31.0744750626859</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>31.94851027796157</v>
+        <v>26.7515256176039</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>31.92961972228106</v>
+        <v>34.70873701686777</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>31.92976285856086</v>
+        <v>39.20344797262067</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>31.9296697149949</v>
+        <v>40.06910459307203</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>31.92754784059322</v>
+        <v>26.61173701625092</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>31.929047844686</v>
+        <v>37.71198938385503</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>31.92886551267282</v>
+        <v>39.69419564786443</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>31.94434801080854</v>
+        <v>0.654270154658235</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>31.94360304675407</v>
+        <v>41.21549101719327</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>31.94345391739765</v>
+        <v>39.52815269635931</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>31.9383179961131</v>
+        <v>11.78288540048646</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>31.93897487103813</v>
+        <v>28.42908701421623</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>31.93888695912874</v>
+        <v>32.49481962287193</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>31.94375643960555</v>
+        <v>40.88573683043658</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>31.94277567885007</v>
+        <v>35.81276132442566</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>31.94279101708898</v>
+        <v>38.86886262930862</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>31.92279534003919</v>
+        <v>43.21051643382961</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>31.91735367664343</v>
+        <v>48.39732521567684</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>31.91787409456413</v>
+        <v>49.08564658157654</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>31.91637349733293</v>
+        <v>33.00565110311687</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>31.91637343597952</v>
+        <v>48.64382597824152</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>31.91623063545329</v>
+        <v>48.5861461774098</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.94941255613042</v>
+        <v>26.43417716566945</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>31.93107348859101</v>
+        <v>32.10943035949091</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>31.93225410857612</v>
+        <v>36.49572553196069</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>31.93223008115378</v>
+        <v>37.95776336844957</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>31.93028090436502</v>
+        <v>24.96158125096608</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>31.93107462779241</v>
+        <v>34.44959728546824</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>31.93091021586593</v>
+        <v>37.23592043380272</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>31.94524546555112</v>
+        <v>1.771295408162981</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.94448400940596</v>
+        <v>40.7192059639097</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>31.94445902483301</v>
+        <v>40.85850649147694</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>31.938919590896</v>
+        <v>12.04090669348316</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.93979644951572</v>
+        <v>28.80259956190725</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>31.93985611624165</v>
+        <v>34.69291230035815</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>31.94491920881176</v>
+        <v>41.86463922851843</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>31.94396439397532</v>
+        <v>36.34857334832386</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>31.94404431406423</v>
+        <v>39.45760430866908</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>31.92357494209095</v>
+        <v>43.92532823011923</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>31.916023876605</v>
+        <v>48.59715371681803</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>31.91596602311781</v>
+        <v>50.08299590111378</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>31.9145599032946</v>
+        <v>33.50948239885766</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>31.91448370256648</v>
+        <v>47.66968866938862</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>31.91438517604507</v>
+        <v>48.63463242806058</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.9591477604107</v>
+        <v>29.11988819222753</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>31.94429582527953</v>
+        <v>28.55810314790866</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>31.94480290739514</v>
+        <v>32.33568473561253</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>31.94482662385528</v>
+        <v>34.66942106221606</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>31.94349563698225</v>
+        <v>25.7095427960701</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>31.94383268401302</v>
+        <v>33.0521953017833</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>31.94379114527816</v>
+        <v>37.21918680116812</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>31.95551725948964</v>
+        <v>11.44023600654703</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.95511786246178</v>
+        <v>39.49366747630368</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>31.95509296623016</v>
+        <v>43.63937922626081</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>31.95083140765349</v>
+        <v>14.55334469481021</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>31.95145850268355</v>
+        <v>34.31336088358312</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>31.95147224474676</v>
+        <v>40.7024818552372</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>31.95548614100703</v>
+        <v>36.85555339827864</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>31.95507227692687</v>
+        <v>41.58907801709071</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>31.95504072625852</v>
+        <v>43.13395415710895</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>31.93853385965192</v>
+        <v>46.49746538797898</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>31.93497846130895</v>
+        <v>51.84838301339705</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>31.93497081010026</v>
+        <v>53.75466294853217</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>31.93382101501334</v>
+        <v>38.29453373052197</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>31.93379481534203</v>
+        <v>50.89668313821485</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>31.93376875689379</v>
+        <v>52.25577350975402</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>31.97886022319713</v>
+        <v>31.98882610302321</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.97885478858887</v>
+        <v>31.98882610341262</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>31.97885921533111</v>
+        <v>31.98882610319883</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>31.97753710021871</v>
+        <v>31.98882609875497</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>31.9774986856874</v>
+        <v>31.98882609834024</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.97753496985108</v>
+        <v>31.98882609967153</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>31.97880059363763</v>
+        <v>31.98882609990367</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>31.97878005318087</v>
+        <v>31.98882609849166</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>31.97880394727558</v>
+        <v>31.98882609898831</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>31.97357848133527</v>
+        <v>31.98882609963568</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>31.97399725187078</v>
+        <v>31.98882609959559</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>31.97400433419108</v>
+        <v>31.98882609963622</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>31.97362168440257</v>
+        <v>31.98882610017343</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>31.97367048770277</v>
+        <v>31.98882610035081</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>31.97365846205685</v>
+        <v>31.98882610014566</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>31.97182174946836</v>
+        <v>31.9888261086825</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.97177124099129</v>
+        <v>31.98882610904222</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>31.97178222190898</v>
+        <v>31.98882610832739</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>31.9702358602448</v>
+        <v>31.98882610368241</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>31.97026586142017</v>
+        <v>31.98882610387526</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>31.97021979192393</v>
+        <v>31.98882610403219</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>31.97220631901229</v>
+        <v>31.98882610535017</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>31.97224104336288</v>
+        <v>31.9888261050896</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>31.97708463455685</v>
+        <v>31.98882609922706</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.97709224614655</v>
+        <v>31.98882609932917</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>31.97710500129221</v>
+        <v>31.9888260991559</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>31.9755377190675</v>
+        <v>31.98882609701111</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>31.97546579270909</v>
+        <v>31.98882609417928</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>31.97552661575449</v>
+        <v>31.98882609437378</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>31.97703755382847</v>
+        <v>31.98882609795171</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>31.97701683698121</v>
+        <v>31.98882609321495</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>31.97705415109598</v>
+        <v>31.98882609374592</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>31.9708262187347</v>
+        <v>31.98882609153061</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>31.97311095941114</v>
+        <v>31.98882609107983</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>31.97310060184755</v>
+        <v>31.98882609110517</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>31.97266611118915</v>
+        <v>31.98882609178827</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>31.97280360401896</v>
+        <v>31.98882609094412</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>31.97274515264616</v>
+        <v>31.98882609101099</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>31.96981003050222</v>
+        <v>31.98882611229043</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>31.96974936583024</v>
+        <v>31.98882611802524</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>31.96974909068357</v>
+        <v>31.98882611970636</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>31.96678852370477</v>
+        <v>31.98882611832411</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>31.96679127209685</v>
+        <v>31.98882612372072</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>31.96676859306477</v>
+        <v>31.98882612562114</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>31.9691018517883</v>
+        <v>31.98882612087812</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>31.96913998261913</v>
+        <v>31.98882612388015</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.97763144424999</v>
+        <v>31.98882609818416</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.97764420524596</v>
+        <v>31.98882609865958</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>31.97765634651968</v>
+        <v>31.98882609820235</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>31.97615836445809</v>
+        <v>31.98882609635148</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>31.97608761296334</v>
+        <v>31.98882609377725</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>31.97614550873192</v>
+        <v>31.9888260935546</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>31.97758774558218</v>
+        <v>31.98882609749347</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>31.97756701664188</v>
+        <v>31.98882609303353</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>31.97760253490971</v>
+        <v>31.98882609322555</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>31.97166407227801</v>
+        <v>31.98882609105812</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>31.97383707289717</v>
+        <v>31.98882609069843</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.97382835273835</v>
+        <v>31.98882609063327</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>31.97340753505381</v>
+        <v>31.98882609127577</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>31.97354519264612</v>
+        <v>31.98882609070097</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>31.97348588794278</v>
+        <v>31.98882609050704</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>31.97080787674162</v>
+        <v>31.98882610998354</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>31.97070115252519</v>
+        <v>31.98882611430513</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>31.97070695815141</v>
+        <v>31.98882611778769</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>31.96746723715874</v>
+        <v>31.98882611479076</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>31.96747237289982</v>
+        <v>31.98882611884052</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>31.96745614405464</v>
+        <v>31.98882612286378</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>31.96973351812718</v>
+        <v>31.98882611653084</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>31.96976578731903</v>
+        <v>31.9888261184242</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.98098441749421</v>
+        <v>31.98882610735802</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>31.98098166084813</v>
+        <v>31.98882610761502</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>31.98097943672418</v>
+        <v>31.98882610774746</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>31.97994489725243</v>
+        <v>31.98882610546098</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>31.97991866256831</v>
+        <v>31.98882610473144</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>31.97993470650524</v>
+        <v>31.98882610431455</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>31.9809213157688</v>
+        <v>31.98882610541851</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>31.98090551125316</v>
+        <v>31.9888261036511</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>31.98091954493101</v>
+        <v>31.98882610303408</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>31.97684367863667</v>
+        <v>31.98882610368177</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>31.97747426648015</v>
+        <v>31.98882610357794</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>31.97747456059157</v>
+        <v>31.98882610349903</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>31.97718545099463</v>
+        <v>31.9888261039301</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>31.97724019488828</v>
+        <v>31.98882610392522</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>31.97722150218288</v>
+        <v>31.9888261034553</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>31.97563168590209</v>
+        <v>31.98882610962447</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>31.97555299139455</v>
+        <v>31.98882611130701</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>31.97556062836536</v>
+        <v>31.98882611513207</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>31.97373022746413</v>
+        <v>31.98882611042053</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>31.97380471527707</v>
+        <v>31.98882611250322</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>31.9737652041862</v>
+        <v>31.98882611650349</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>31.97536362491822</v>
+        <v>31.98882611166638</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>31.9753842724167</v>
+        <v>31.98882611219521</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>31.97176988831251</v>
+        <v>31.98882610436105</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>31.96298362808814</v>
+        <v>31.98882610455651</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>31.96319721742356</v>
+        <v>31.98882610461785</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>31.96320827633556</v>
+        <v>31.98882610444103</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>31.96255066389472</v>
+        <v>31.98882610486464</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.96261681013785</v>
+        <v>31.98882610519721</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>31.9626097379428</v>
+        <v>31.98882610448703</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>31.96959775319623</v>
+        <v>31.98882610691916</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>31.96958258688683</v>
+        <v>31.98882610881261</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>31.96957938915712</v>
+        <v>31.98882610787773</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>31.96703935614122</v>
+        <v>31.98882610113454</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.9671277836515</v>
+        <v>31.98882610307636</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>31.96713404369888</v>
+        <v>31.98882610300491</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>31.96946825029199</v>
+        <v>31.98882610309192</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>31.96944130554512</v>
+        <v>31.98882610406497</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>31.96944348623495</v>
+        <v>31.98882610269412</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>31.95962874196831</v>
+        <v>31.98882610360521</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>31.96161063566257</v>
+        <v>31.98882610405325</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>31.96167050944414</v>
+        <v>31.98882610379842</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>31.9610718973425</v>
+        <v>31.98882610379642</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>31.96111111993085</v>
+        <v>31.98882610499725</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.96105876912038</v>
+        <v>31.98882610420335</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>31.96956769425858</v>
+        <v>31.98882612539722</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>31.96024263319016</v>
+        <v>31.98882612608801</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>31.96106747911792</v>
+        <v>31.98882612740836</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>31.96105801190621</v>
+        <v>31.98882612771169</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>31.96032676702807</v>
+        <v>31.98882612335159</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>31.96048657024021</v>
+        <v>31.98882612671251</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>31.96042708748679</v>
+        <v>31.98882612769776</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>31.96790616311213</v>
+        <v>31.98882611649006</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>31.96778096781727</v>
+        <v>31.98882612310667</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>31.96773496291925</v>
+        <v>31.98882612439641</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>31.96499513113343</v>
+        <v>31.98882612042816</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>31.96512867086418</v>
+        <v>31.98882612446107</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>31.96503753237696</v>
+        <v>31.98882612655731</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>31.96751017141809</v>
+        <v>31.98882612400531</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>31.96740813598038</v>
+        <v>31.98882612612951</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>31.96737605641973</v>
+        <v>31.98882612804375</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>31.95732757813657</v>
+        <v>31.98882613028441</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>31.95609276641261</v>
+        <v>31.98882613161098</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>31.95602974019077</v>
+        <v>31.98882613213927</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>31.95537833814665</v>
+        <v>31.98882612743688</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>31.95534818248267</v>
+        <v>31.98882613062272</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>31.95534194763091</v>
+        <v>31.98882613193186</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>31.97058787379125</v>
+        <v>31.98882612169694</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>31.96171066961251</v>
+        <v>31.98882612200199</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>31.96240841413547</v>
+        <v>31.98882612295988</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>31.96240374554246</v>
+        <v>31.9888261240649</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>31.96168616763285</v>
+        <v>31.98882612004474</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>31.96185448288373</v>
+        <v>31.98882612234337</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>31.96179226625117</v>
+        <v>31.9888261246735</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>31.96882835763222</v>
+        <v>31.98882611678049</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>31.96866168416043</v>
+        <v>31.98882612243497</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>31.96863826546065</v>
+        <v>31.98882612506992</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>31.96602657629003</v>
+        <v>31.98882611741203</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>31.96619198001978</v>
+        <v>31.98882612091785</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>31.96614443829207</v>
+        <v>31.98882612427351</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>31.96854040625767</v>
+        <v>31.98882612074272</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>31.96841863799041</v>
+        <v>31.98882612267683</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>31.96840636070981</v>
+        <v>31.98882612533717</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>31.95865006970788</v>
+        <v>31.98882612586965</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>31.95649178318124</v>
+        <v>31.98882612705855</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>31.9563489510281</v>
+        <v>31.98882612801934</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>31.95572221897166</v>
+        <v>31.98882612354994</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>31.95566316574407</v>
+        <v>31.9888261263068</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>31.95568895749813</v>
+        <v>31.98882612820915</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>31.97552976889629</v>
+        <v>31.98882611564079</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>31.96877299873979</v>
+        <v>31.98882611507551</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>31.9690665775729</v>
+        <v>31.98882611545107</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>31.96906996560128</v>
+        <v>31.98882611675861</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>31.96856658127955</v>
+        <v>31.98882611427349</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>31.96864020451362</v>
+        <v>31.98882611504659</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.96861711958702</v>
+        <v>31.98882611760598</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>31.97407730053878</v>
+        <v>31.98882610992734</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>31.97397735140263</v>
+        <v>31.98882611171096</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>31.97396862836467</v>
+        <v>31.98882611549925</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>31.97203194810887</v>
+        <v>31.98882610944332</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>31.97215255975564</v>
+        <v>31.98882611124786</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>31.97212155074472</v>
+        <v>31.98882611560818</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>31.97392987891579</v>
+        <v>31.98882611079987</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>31.9738736168812</v>
+        <v>31.98882611151941</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>31.97385596000732</v>
+        <v>31.98882611485632</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>31.9664089734999</v>
+        <v>31.98882611115963</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>31.96562749608414</v>
+        <v>31.98882611164285</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>31.96562917472946</v>
+        <v>31.98882611292533</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>31.96513225316886</v>
+        <v>31.98882610992823</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>31.96511469914168</v>
+        <v>31.98882611108649</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>31.96511710369197</v>
+        <v>31.98882611331192</v>
       </c>
     </row>
   </sheetData>
